--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project sudoku\Project\sudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieun\Desktop\GitHub\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +393,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,6 +438,12 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1">
+        <v>43360</v>
+      </c>
+      <c r="F2" s="1">
+        <v>43373</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -451,6 +458,12 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" s="1">
+        <v>43374</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43380</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -461,6 +474,12 @@
       </c>
       <c r="C4" t="s">
         <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43360</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43366</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -476,6 +495,12 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="1">
+        <v>43380</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43387</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -487,6 +512,12 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
+      <c r="E6" s="1">
+        <v>43388</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43394</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -498,6 +529,12 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="1">
+        <v>43388</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43394</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -509,6 +546,12 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
+      <c r="E8" s="1">
+        <v>43388</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43394</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -519,6 +562,12 @@
       </c>
       <c r="C9" t="s">
         <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43388</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43394</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -65,13 +65,13 @@
     <t>STT</t>
   </si>
   <si>
-    <t>tên công việc</t>
-  </si>
-  <si>
-    <t>ngày bắt đầu dự kiến</t>
-  </si>
-  <si>
-    <t>ngày kết thúc dự kiến</t>
+    <t>Tên công việc</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu dự kiến</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc dự kiến</t>
   </si>
 </sst>
 </file>
@@ -95,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -103,13 +103,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,192 +416,206 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="5" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="20.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
         <v>43360</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>43373</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
         <v>43374</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>43380</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2">
         <v>43360</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>43366</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
         <v>43380</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>43387</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
         <v>43388</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>43394</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
         <v>43388</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>43394</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2">
         <v>43388</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>43394</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2">
         <v>43388</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>43394</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>3</v>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43388</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43394</v>
       </c>
     </row>
   </sheetData>

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Ngày kết thúc dự kiến</t>
+  </si>
+  <si>
+    <t>xxxxx</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,6 +621,11 @@
         <v>43394</v>
       </c>
     </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Ngày kết thúc dự kiến</t>
-  </si>
-  <si>
-    <t>xxxxx</t>
   </si>
 </sst>
 </file>
@@ -416,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,11 +618,6 @@
         <v>43394</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
   <si>
-    <t>Tiến</t>
-  </si>
-  <si>
-    <t>Hiếu</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -72,13 +66,52 @@
   </si>
   <si>
     <t>Ngày kết thúc dự kiến</t>
+  </si>
+  <si>
+    <t>Lê Minh Tiến</t>
+  </si>
+  <si>
+    <t>Võ Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Viết báo cáo</t>
+  </si>
+  <si>
+    <t>Soạn powerpoint để thuyết trình</t>
+  </si>
+  <si>
+    <t>Tiến độ</t>
+  </si>
+  <si>
+    <t>BẢNG KẾ HOẠCH ĐỒ ÁN CUỐI KÌ CTDL: GIẢI SUDUKU</t>
+  </si>
+  <si>
+    <t>Test game và sửa lỗi</t>
+  </si>
+  <si>
+    <t>17/9/2018</t>
+  </si>
+  <si>
+    <t>23/9/2018</t>
+  </si>
+  <si>
+    <t>30/9/2018</t>
+  </si>
+  <si>
+    <t>14/10/2018</t>
+  </si>
+  <si>
+    <t>21/10/2018</t>
+  </si>
+  <si>
+    <t>28/10/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,16 +119,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -103,41 +171,196 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -148,6 +371,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A2:G14"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="STT" dataDxfId="6"/>
+    <tableColumn id="2" name="Tên công việc" dataDxfId="5"/>
+    <tableColumn id="3" name="Lê Minh Tiến" dataDxfId="4"/>
+    <tableColumn id="4" name="Võ Minh Hiếu" dataDxfId="3"/>
+    <tableColumn id="5" name="Ngày bắt đầu dự kiến" dataDxfId="2"/>
+    <tableColumn id="6" name="Ngày kết thúc dự kiến" dataDxfId="1"/>
+    <tableColumn id="8" name="Tiến độ" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,212 +652,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="5"/>
-    <col min="5" max="5" width="20.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>6</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10">
+        <v>43291</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43360</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="11">
+        <v>43291</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>43291</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43374</v>
-      </c>
-      <c r="F3" s="2">
-        <v>43380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
-        <v>43360</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>43380</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="11">
+        <v>43291</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2">
-        <v>43388</v>
-      </c>
-      <c r="F6" s="2">
-        <v>43394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>43388</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2">
-        <v>43388</v>
-      </c>
-      <c r="F8" s="2">
-        <v>43394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2">
-        <v>43388</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>43388</v>
-      </c>
-      <c r="F10" s="4">
-        <v>43394</v>
-      </c>
+      <c r="B13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -213,14 +213,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,33 +655,32 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -704,7 +703,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -727,9 +726,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
@@ -746,7 +745,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -765,9 +764,9 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -786,9 +785,9 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -807,9 +806,9 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -826,7 +825,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -845,7 +844,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -864,7 +863,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -883,7 +882,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -904,7 +903,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -917,15 +916,15 @@
       <c r="D13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -938,10 +937,10 @@
       <c r="D14" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="9"/>

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>28/10/2018</t>
+  </si>
+  <si>
+    <t>15/10/2018</t>
+  </si>
+  <si>
+    <t>16/10/2018</t>
+  </si>
+  <si>
+    <t>Trước dự kiến( 10/4)</t>
   </si>
 </sst>
 </file>
@@ -655,7 +664,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +674,7 @@
     <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -731,12 +740,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
@@ -750,17 +759,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7" t="s">
         <v>23</v>
+      </c>
+      <c r="F5" s="10">
+        <v>43291</v>
       </c>
       <c r="G5" s="9"/>
     </row>
@@ -769,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -780,7 +791,7 @@
       <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>43291</v>
       </c>
       <c r="G6" s="9"/>
@@ -790,19 +801,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="11">
+      <c r="E7" s="11">
         <v>43291</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="9"/>
     </row>
@@ -811,12 +820,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
       <c r="E8" s="11">
         <v>43291</v>
       </c>
@@ -830,17 +839,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="11">
-        <v>43291</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -861,7 +870,9 @@
       <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieun\Desktop\GitHub\sudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project sudoku\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,21 +664,21 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -752,9 +752,11 @@
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -773,9 +775,11 @@
       <c r="F5" s="10">
         <v>43291</v>
       </c>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G5" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -794,9 +798,9 @@
       <c r="F6" s="11">
         <v>43291</v>
       </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -815,7 +819,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -834,7 +838,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -851,9 +855,11 @@
       <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -874,7 +880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -893,7 +899,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -914,7 +920,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -935,7 +941,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>28/10/2018</t>
-  </si>
-  <si>
-    <t>15/10/2018</t>
-  </si>
-  <si>
-    <t>16/10/2018</t>
   </si>
   <si>
     <t>Trước dự kiến( 10/4)</t>
@@ -664,7 +658,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,10 +844,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
+      </c>
+      <c r="F9" s="11">
+        <v>43291</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
@@ -877,7 +871,7 @@
         <v>25</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project sudoku\sudoku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieun\Desktop\GitHub\sudoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -89,15 +89,6 @@
     <t>Test game và sửa lỗi</t>
   </si>
   <si>
-    <t>17/9/2018</t>
-  </si>
-  <si>
-    <t>23/9/2018</t>
-  </si>
-  <si>
-    <t>30/9/2018</t>
-  </si>
-  <si>
     <t>14/10/2018</t>
   </si>
   <si>
@@ -107,13 +98,34 @@
     <t>28/10/2018</t>
   </si>
   <si>
-    <t>Trước dự kiến( 10/4)</t>
+    <t>23/09/2018</t>
+  </si>
+  <si>
+    <t>30/09/2018</t>
+  </si>
+  <si>
+    <t>17/09/2018</t>
+  </si>
+  <si>
+    <t>Hoàn thành(20/09/2018)</t>
+  </si>
+  <si>
+    <t>Hoàn thành (5/10/2018)</t>
+  </si>
+  <si>
+    <t>Hoàn  thành (5/10/2018)</t>
+  </si>
+  <si>
+    <t>Trước dự kiến( 04/10/2018)</t>
+  </si>
+  <si>
+    <t>Trể hẹn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,21 +670,21 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
@@ -683,7 +695,7 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -706,7 +718,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -720,16 +732,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -741,16 +753,16 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -764,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="10">
         <v>43291</v>
       </c>
-      <c r="G5" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -787,14 +799,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="11">
         <v>43291</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G6" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -809,11 +823,11 @@
         <v>43291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -828,11 +842,11 @@
         <v>43291</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -844,16 +858,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="11">
         <v>43291</v>
       </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G9" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -865,16 +879,16 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -886,14 +900,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -907,14 +921,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -928,14 +942,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -949,10 +963,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="9"/>
     </row>

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieun\Desktop\GitHub\sudoku\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Tìm hiểu về các stack</t>
   </si>
@@ -119,13 +114,16 @@
     <t>Trước dự kiến( 04/10/2018)</t>
   </si>
   <si>
-    <t>Trể hẹn</t>
+    <t>Trể hẹn( Hoàn thành 20/10/2018)</t>
+  </si>
+  <si>
+    <t>Hoàn tthành(09/10/2018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -482,7 +480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -659,7 +657,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,7 +668,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +678,7 @@
     <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
     <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
@@ -825,7 +823,9 @@
       <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">

--- a/bkh.xlsx
+++ b/bkh.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\sudoku\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,9 +204,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -234,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,7 +662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -668,32 +673,32 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -712,263 +717,263 @@
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>43291</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>43291</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
         <v>43291</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11">
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10">
         <v>43291</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>43291</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="7" t="s">
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
